--- a/DATA/IsoData/MLBSIsoData.xlsx
+++ b/DATA/IsoData/MLBSIsoData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t xml:space="preserve">uid</t>
   </si>
@@ -65,7 +65,10 @@
     <t xml:space="preserve">publicationDate</t>
   </si>
   <si>
-    <t xml:space="preserve">5e8f821b-1468-42cf-b43f-dcdd24e7490c</t>
+    <t xml:space="preserve">release</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e49fa4ee-47ee-481e-b10a-452f302b47dd</t>
   </si>
   <si>
     <t xml:space="preserve">MLBS.TOS.wet.deposition</t>
@@ -86,10 +89,13 @@
     <t xml:space="preserve">OK</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T155508Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">184038cf-b493-42d5-af15-f01bf1a204c7</t>
+    <t xml:space="preserve">20210112T145758Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RELEASE-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3a3545d1-24bc-41a9-b9b2-a595af725b13</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.MLBS.20190612.0909</t>
@@ -101,10 +107,10 @@
     <t xml:space="preserve">A00000045637</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T155307Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44c32e27-3250-43d8-a661-9b2835053dfb</t>
+    <t xml:space="preserve">20210112T145728Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8dc5cb6b-4166-4030-9cf7-86d7d3e4aee7</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.MLBS.20190625.0249</t>
@@ -116,7 +122,7 @@
     <t xml:space="preserve">A00000080967</t>
   </si>
   <si>
-    <t xml:space="preserve">49d98421-594c-4c22-87bc-519d0ef07092</t>
+    <t xml:space="preserve">ccb6bd06-1a2a-41db-bab9-6b38e2381627</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.MLBS.20190807.0901</t>
@@ -128,10 +134,10 @@
     <t xml:space="preserve">A00000081471</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T152322Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">332eaf2e-c16c-4871-83ec-9c9548e5acdd</t>
+    <t xml:space="preserve">20210112T161553Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f54dbeab-6c51-40f6-8b74-ebf6f5b8a3ec</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.MLBS.20190821.0807</t>
@@ -143,7 +149,7 @@
     <t xml:space="preserve">A00000081466</t>
   </si>
   <si>
-    <t xml:space="preserve">78beffce-d8ef-432d-9e35-d4387afd22b6</t>
+    <t xml:space="preserve">e5456b35-cb11-41da-b580-c7c90f6e9968</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.MLBS.20190904.0808</t>
@@ -155,10 +161,10 @@
     <t xml:space="preserve">A00000081449</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T152219Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adb9894b-5d12-49d8-9c70-0227643ee620</t>
+    <t xml:space="preserve">20210112T162711Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b8157e01-c36b-4cee-9956-73125a3a2657</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.MLBS.20190918.0832</t>
@@ -170,7 +176,7 @@
     <t xml:space="preserve">A00000081450</t>
   </si>
   <si>
-    <t xml:space="preserve">4b91af46-b315-4ab9-8158-51696cfa6a48</t>
+    <t xml:space="preserve">bf37c090-c21c-45f1-898e-2a50461ead47</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.MLBS.20191002.0911</t>
@@ -182,10 +188,10 @@
     <t xml:space="preserve">A00000081452</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T151445Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7b77211c-2ece-4f5f-8baf-efbf208f550c</t>
+    <t xml:space="preserve">20210112T162103Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">711c64e3-b852-4e0a-afd0-eb4894409706</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.MLBS.20191015.1343</t>
@@ -197,7 +203,7 @@
     <t xml:space="preserve">A00000081456</t>
   </si>
   <si>
-    <t xml:space="preserve">a52a2d22-79a2-4571-8f78-4fa52bf7161c</t>
+    <t xml:space="preserve">36baabc0-b326-421f-b1c1-abc864c6c750</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.MLBS.20191029.1412</t>
@@ -209,7 +215,7 @@
     <t xml:space="preserve">A00000081460</t>
   </si>
   <si>
-    <t xml:space="preserve">57a9c24d-51b7-4e79-bde7-219f37dfc269</t>
+    <t xml:space="preserve">f53386c2-0649-4af1-bd64-497c698c0772</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.MLBS.20191113.0837</t>
@@ -221,10 +227,10 @@
     <t xml:space="preserve">A00000141922</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T151826Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6eee6f8e-bca7-4d39-8db3-621197a58709</t>
+    <t xml:space="preserve">20210112T145115Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05aad4f3-36d2-413d-b5ab-cb019fa1ddd3</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.MLBS.20191126.1159</t>
@@ -234,6 +240,108 @@
   </si>
   <si>
     <t xml:space="preserve">A00000141900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d74ea8e0-9482-4cef-ab62-8285487b326c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.MLBS.20191217.1451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.MLBS.20191217.1451.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000081435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210112T163328Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67448432-ea30-46e0-8467-1c7d4870adff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.MLBS.20200107.0751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.MLBS.20200107.0751.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000141903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210112T145250Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROVISIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0871c149-f4fa-4913-bc5f-60b2780761a2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.MLBS.20200121.1656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.MLBS.20200121.1656.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000141905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152fdfd2-4217-46b4-bb34-ec3e3dc5bd79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.MLBS.20200204.1409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.MLBS.20200204.1409.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000141910</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210112T145136Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c63154b9-35ba-4711-9b31-a840023df188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.MLBS.20200219.1217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.MLBS.20200219.1217.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000141890</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00f083c1-d31e-4b4e-a277-4115121e808d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.MLBS.20200303.1038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.MLBS.20200303.1038.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000141896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210112T145641Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b8e77996-f17a-4a4c-880b-ead3e93f445e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.MLBS.20200708.1433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.MLBS.20200708.1433.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000143585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210112T164248Z</t>
   </si>
 </sst>
 </file>
@@ -571,7 +679,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -625,23 +733,26 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2"/>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>43599.8784722222</v>
@@ -662,35 +773,38 @@
         <v>0.372</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N2" s="1" t="n">
         <v>43643.75</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P2"/>
       <c r="Q2" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="R2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>43614.5284722222</v>
@@ -711,35 +825,38 @@
         <v>0.069</v>
       </c>
       <c r="M3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N3" s="1" t="n">
         <v>43720.75</v>
       </c>
       <c r="O3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P3"/>
       <c r="Q3" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="R3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D4"/>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>43628.5597222222</v>
@@ -760,35 +877,38 @@
         <v>0.029</v>
       </c>
       <c r="M4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N4" s="1" t="n">
         <v>43720.75</v>
       </c>
       <c r="O4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P4"/>
       <c r="Q4" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="R4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D5"/>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>43670.5604166667</v>
@@ -809,35 +929,38 @@
         <v>0.138</v>
       </c>
       <c r="M5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N5" s="1" t="n">
         <v>43720.75</v>
       </c>
       <c r="O5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P5"/>
       <c r="Q5" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="R5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D6"/>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>43684.5361111111</v>
@@ -858,35 +981,38 @@
         <v>0.155</v>
       </c>
       <c r="M6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N6" s="1" t="n">
         <v>43805.7916666667</v>
       </c>
       <c r="O6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P6"/>
       <c r="Q6" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="R6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D7"/>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>43698.5069444444</v>
@@ -907,35 +1033,38 @@
         <v>0.25</v>
       </c>
       <c r="M7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N7" s="1" t="n">
         <v>43805.7916666667</v>
       </c>
       <c r="O7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P7"/>
       <c r="Q7" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="R7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D8"/>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>43712.5104166667</v>
@@ -956,35 +1085,38 @@
         <v>0.173</v>
       </c>
       <c r="M8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N8" s="1" t="n">
         <v>43805.7916666667</v>
       </c>
       <c r="O8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P8"/>
       <c r="Q8" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="R8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D9"/>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>43726.5506944444</v>
@@ -1005,35 +1137,38 @@
         <v>0.174</v>
       </c>
       <c r="M9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N9" s="1" t="n">
         <v>43853.7916666667</v>
       </c>
       <c r="O9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P9"/>
       <c r="Q9" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="R9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D10"/>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>43740.5548611111</v>
@@ -1054,35 +1189,38 @@
         <v>0.055</v>
       </c>
       <c r="M10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N10" s="1" t="n">
         <v>43853.7916666667</v>
       </c>
       <c r="O10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P10"/>
       <c r="Q10" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="R10" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D11"/>
       <c r="E11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>43753.7451388889</v>
@@ -1103,35 +1241,38 @@
         <v>0.093</v>
       </c>
       <c r="M11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N11" s="1" t="n">
         <v>43853.7916666667</v>
       </c>
       <c r="O11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P11"/>
       <c r="Q11" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="R11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D12"/>
       <c r="E12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G12" s="1" t="n">
         <v>43767.7673611111</v>
@@ -1152,35 +1293,38 @@
         <v>0.123</v>
       </c>
       <c r="M12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N12" s="1" t="n">
         <v>43853.7916666667</v>
       </c>
       <c r="O12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P12"/>
       <c r="Q12" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="R12" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D13"/>
       <c r="E13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G13" s="1" t="n">
         <v>43782.5784722222</v>
@@ -1201,17 +1345,384 @@
         <v>0.103</v>
       </c>
       <c r="M13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N13" s="1" t="n">
         <v>43853.7916666667</v>
       </c>
       <c r="O13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P13"/>
       <c r="Q13" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="R13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>43795.71875</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>43816.8270833333</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-11.348</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-75.536</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="M14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N14" s="1" t="n">
+        <v>43973.75</v>
+      </c>
+      <c r="O14" t="s">
+        <v>24</v>
+      </c>
+      <c r="P14"/>
+      <c r="Q14" t="s">
+        <v>80</v>
+      </c>
+      <c r="R14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" t="s">
+        <v>84</v>
+      </c>
+      <c r="G15" s="1" t="n">
+        <v>43816.8361111111</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <v>43837.5354166667</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-9.007</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-56.106</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="M15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N15" s="1" t="n">
+        <v>43973.75</v>
+      </c>
+      <c r="O15" t="s">
+        <v>24</v>
+      </c>
+      <c r="P15"/>
+      <c r="Q15" t="s">
+        <v>85</v>
+      </c>
+      <c r="R15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>43837.5513888889</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>43851.9138888889</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-5.469</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-26.116</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.148</v>
+      </c>
+      <c r="M16" t="s">
+        <v>23</v>
+      </c>
+      <c r="N16" s="1" t="n">
+        <v>43973.75</v>
+      </c>
+      <c r="O16" t="s">
+        <v>24</v>
+      </c>
+      <c r="P16"/>
+      <c r="Q16" t="s">
+        <v>85</v>
+      </c>
+      <c r="R16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>43851.9305555556</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <v>43865.7979166667</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-7.97</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-40.429</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.159</v>
+      </c>
+      <c r="M17" t="s">
+        <v>23</v>
+      </c>
+      <c r="N17" s="1" t="n">
+        <v>43973.75</v>
+      </c>
+      <c r="O17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P17"/>
+      <c r="Q17" t="s">
+        <v>95</v>
+      </c>
+      <c r="R17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" t="s">
+        <v>99</v>
+      </c>
+      <c r="G18" s="1" t="n">
+        <v>43865.8104166667</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <v>43880.7201388889</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-10.031</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-68.933</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="M18" t="s">
+        <v>23</v>
+      </c>
+      <c r="N18" s="1" t="n">
+        <v>44006.75</v>
+      </c>
+      <c r="O18" t="s">
+        <v>24</v>
+      </c>
+      <c r="P18"/>
+      <c r="Q18" t="s">
+        <v>95</v>
+      </c>
+      <c r="R18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" s="1" t="n">
+        <v>43880.7270833333</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <v>43893.6513888889</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-10.703</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-69.906</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.149</v>
+      </c>
+      <c r="M19" t="s">
+        <v>23</v>
+      </c>
+      <c r="N19" s="1" t="n">
+        <v>44006.75</v>
+      </c>
+      <c r="O19" t="s">
+        <v>24</v>
+      </c>
+      <c r="P19"/>
+      <c r="Q19" t="s">
+        <v>104</v>
+      </c>
+      <c r="R19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" t="s">
+        <v>108</v>
+      </c>
+      <c r="G20" s="1" t="n">
+        <v>44006.5076388889</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <v>44020.7729166667</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-5.559</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-36.766</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.093</v>
+      </c>
+      <c r="M20" t="s">
+        <v>23</v>
+      </c>
+      <c r="N20" s="1" t="n">
+        <v>44095.75</v>
+      </c>
+      <c r="O20" t="s">
+        <v>24</v>
+      </c>
+      <c r="P20"/>
+      <c r="Q20" t="s">
+        <v>109</v>
+      </c>
+      <c r="R20" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
